--- a/Midreport_PDF/2022Mid/2022MidMgmt.xlsx
+++ b/Midreport_PDF/2022Mid/2022MidMgmt.xlsx
@@ -1301,7 +1301,9 @@
       <c r="G9" t="inlineStr"/>
       <c r="H9" t="inlineStr"/>
       <c r="I9" t="inlineStr"/>
-      <c r="J9" t="inlineStr"/>
+      <c r="J9" t="n">
+        <v>41624430.51</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
